--- a/nr-update/ig/StructureDefinition-as-dp-practitioner.xlsx
+++ b/nr-update/ig/StructureDefinition-as-dp-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12603" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12603" uniqueCount="1022">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T17:24:24+00:00</t>
+    <t>2025-01-21T08:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2111,6 +2111,9 @@
     <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
   </si>
   <si>
+    <t>ExerciceProfessionnel.boiteLettresMSS</t>
+  </si>
+  <si>
     <t>Practitioner.telecom:mailbox-mss.id</t>
   </si>
   <si>
@@ -3162,10 +3165,10 @@
     <t>Langue parlée (langueParlee).</t>
   </si>
   <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+    <t>A language the practitioner can use in patient communication.</t>
+  </si>
+  <si>
+    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.</t>
   </si>
   <si>
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
@@ -3174,10 +3177,13 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J82-Langue-RASS/FHIR/JDV-J82-Langue-RASS</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
+    <t>PID-15, NK1-20, LAN-2</t>
+  </si>
+  <si>
+    <t>./languageCommunication</t>
+  </si>
+  <si>
+    <t>./Languages.LanguageSpokenCode</t>
   </si>
 </sst>
 </file>
@@ -19998,7 +20004,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>100</v>
@@ -20668,7 +20674,7 @@
         <v>85</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>83</v>
@@ -21190,7 +21196,7 @@
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>100</v>
@@ -24856,7 +24862,7 @@
         <v>83</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>83</v>
+        <v>672</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>83</v>
@@ -24885,10 +24891,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -25015,10 +25021,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -25145,13 +25151,13 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="B165" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="B165" t="s" s="2">
-        <v>675</v>
-      </c>
       <c r="C165" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>83</v>
@@ -25173,13 +25179,13 @@
         <v>83</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -25277,10 +25283,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -25407,10 +25413,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -25537,10 +25543,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -25580,7 +25586,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>83</v>
@@ -25669,10 +25675,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -25713,7 +25719,7 @@
         <v>83</v>
       </c>
       <c r="S169" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>83</v>
@@ -25732,7 +25738,7 @@
       </c>
       <c r="Y169" s="2"/>
       <c r="Z169" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>83</v>
@@ -25797,13 +25803,13 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>83</v>
@@ -25825,13 +25831,13 @@
         <v>83</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -25929,10 +25935,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -26059,10 +26065,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -26191,10 +26197,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>330</v>
@@ -26222,7 +26228,7 @@
         <v>121</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>215</v>
@@ -26323,10 +26329,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -26453,10 +26459,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -26583,10 +26589,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -26715,10 +26721,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -26778,7 +26784,7 @@
       </c>
       <c r="Y177" s="2"/>
       <c r="Z177" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>83</v>
@@ -26843,13 +26849,13 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>83</v>
@@ -26874,7 +26880,7 @@
         <v>121</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M178" t="s" s="2">
         <v>215</v>
@@ -26975,10 +26981,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -27105,10 +27111,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -27235,10 +27241,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -27278,7 +27284,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>83</v>
@@ -27367,10 +27373,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -27497,13 +27503,13 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>83</v>
@@ -27629,10 +27635,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -27759,10 +27765,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -27889,10 +27895,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -27932,7 +27938,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>83</v>
@@ -28021,10 +28027,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -28151,13 +28157,13 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>83</v>
@@ -28182,7 +28188,7 @@
         <v>121</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M188" t="s" s="2">
         <v>215</v>
@@ -28283,10 +28289,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -28413,10 +28419,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -28543,10 +28549,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -28586,7 +28592,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>83</v>
@@ -28675,10 +28681,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -28805,13 +28811,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>83</v>
@@ -28937,10 +28943,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -29067,10 +29073,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -29197,10 +29203,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -29240,7 +29246,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>83</v>
@@ -29329,10 +29335,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -29459,13 +29465,13 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>83</v>
@@ -29490,7 +29496,7 @@
         <v>121</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M198" t="s" s="2">
         <v>215</v>
@@ -29591,10 +29597,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -29721,10 +29727,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -29851,10 +29857,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -29894,7 +29900,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>83</v>
@@ -29983,10 +29989,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -30113,13 +30119,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>83</v>
@@ -30144,7 +30150,7 @@
         <v>121</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M203" t="s" s="2">
         <v>215</v>
@@ -30245,10 +30251,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -30375,10 +30381,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -30505,10 +30511,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -30548,7 +30554,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>83</v>
@@ -30637,10 +30643,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -30767,10 +30773,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -30810,7 +30816,7 @@
       </c>
       <c r="Q208" s="2"/>
       <c r="R208" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>83</v>
@@ -30899,10 +30905,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -31029,10 +31035,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -31058,10 +31064,10 @@
         <v>189</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -31073,7 +31079,7 @@
         <v>83</v>
       </c>
       <c r="S210" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="T210" t="s" s="2">
         <v>83</v>
@@ -31091,10 +31097,10 @@
         <v>250</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>83</v>
@@ -31112,7 +31118,7 @@
         <v>83</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>84</v>
@@ -31121,7 +31127,7 @@
         <v>100</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>112</v>
@@ -31145,13 +31151,13 @@
         <v>83</v>
       </c>
       <c r="AQ210" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AR210" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AS210" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AT210" t="s" s="2">
         <v>83</v>
@@ -31159,10 +31165,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -31188,16 +31194,16 @@
         <v>114</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>83</v>
@@ -31246,7 +31252,7 @@
         <v>83</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>84</v>
@@ -31279,10 +31285,10 @@
         <v>83</v>
       </c>
       <c r="AQ211" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AR211" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AS211" t="s" s="2">
         <v>490</v>
@@ -31293,10 +31299,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -31322,16 +31328,16 @@
         <v>189</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>83</v>
@@ -31359,10 +31365,10 @@
         <v>250</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AA212" t="s" s="2">
         <v>83</v>
@@ -31380,7 +31386,7 @@
         <v>83</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>84</v>
@@ -31413,13 +31419,13 @@
         <v>83</v>
       </c>
       <c r="AQ212" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AR212" t="s" s="2">
         <v>600</v>
       </c>
       <c r="AS212" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AT212" t="s" s="2">
         <v>83</v>
@@ -31427,10 +31433,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -31453,16 +31459,16 @@
         <v>101</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
@@ -31512,7 +31518,7 @@
         <v>83</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>84</v>
@@ -31559,10 +31565,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -31588,10 +31594,10 @@
         <v>267</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -31642,7 +31648,7 @@
         <v>83</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>84</v>
@@ -31689,10 +31695,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -31715,19 +31721,19 @@
         <v>83</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O215" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>83</v>
@@ -31776,7 +31782,7 @@
         <v>83</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>84</v>
@@ -31803,19 +31809,19 @@
         <v>83</v>
       </c>
       <c r="AO215" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AP215" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ215" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AR215" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AS215" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AT215" t="s" s="2">
         <v>83</v>
@@ -31823,10 +31829,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -31852,14 +31858,14 @@
         <v>189</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>83</v>
@@ -31887,10 +31893,10 @@
         <v>250</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>83</v>
@@ -31908,7 +31914,7 @@
         <v>83</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>84</v>
@@ -31941,13 +31947,13 @@
         <v>83</v>
       </c>
       <c r="AQ216" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AR216" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AS216" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AT216" t="s" s="2">
         <v>83</v>
@@ -31955,10 +31961,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -31981,17 +31987,17 @@
         <v>101</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>83</v>
@@ -32040,7 +32046,7 @@
         <v>83</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>84</v>
@@ -32073,13 +32079,13 @@
         <v>83</v>
       </c>
       <c r="AQ217" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AR217" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AS217" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AT217" t="s" s="2">
         <v>83</v>
@@ -32087,10 +32093,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -32113,17 +32119,17 @@
         <v>83</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>83</v>
@@ -32172,7 +32178,7 @@
         <v>83</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>84</v>
@@ -32208,10 +32214,10 @@
         <v>83</v>
       </c>
       <c r="AR218" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AS218" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AT218" t="s" s="2">
         <v>83</v>
@@ -32219,10 +32225,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -32245,13 +32251,13 @@
         <v>83</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -32290,7 +32296,7 @@
         <v>83</v>
       </c>
       <c r="AB219" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AC219" s="2"/>
       <c r="AD219" t="s" s="2">
@@ -32300,7 +32306,7 @@
         <v>127</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>84</v>
@@ -32333,13 +32339,13 @@
         <v>83</v>
       </c>
       <c r="AQ219" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AR219" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AS219" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AT219" t="s" s="2">
         <v>83</v>
@@ -32347,10 +32353,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -32477,10 +32483,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -32609,14 +32615,14 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
@@ -32638,10 +32644,10 @@
         <v>121</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N222" t="s" s="2">
         <v>124</v>
@@ -32696,7 +32702,7 @@
         <v>83</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>84</v>
@@ -32743,10 +32749,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -32772,14 +32778,14 @@
         <v>385</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>83</v>
@@ -32828,7 +32834,7 @@
         <v>83</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>84</v>
@@ -32852,7 +32858,7 @@
         <v>83</v>
       </c>
       <c r="AN223" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AO223" t="s" s="2">
         <v>83</v>
@@ -32864,7 +32870,7 @@
         <v>83</v>
       </c>
       <c r="AR223" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AS223" t="s" s="2">
         <v>83</v>
@@ -32875,10 +32881,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -32904,10 +32910,10 @@
         <v>247</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -32937,10 +32943,10 @@
         <v>179</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AA224" t="s" s="2">
         <v>83</v>
@@ -32958,7 +32964,7 @@
         <v>83</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>100</v>
@@ -32982,7 +32988,7 @@
         <v>83</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AO224" t="s" s="2">
         <v>83</v>
@@ -32994,10 +33000,10 @@
         <v>83</v>
       </c>
       <c r="AR224" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AS224" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AT224" t="s" s="2">
         <v>83</v>
@@ -33005,10 +33011,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -33034,14 +33040,14 @@
         <v>267</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>83</v>
@@ -33090,7 +33096,7 @@
         <v>83</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>84</v>
@@ -33126,10 +33132,10 @@
         <v>83</v>
       </c>
       <c r="AR225" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AS225" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AT225" t="s" s="2">
         <v>83</v>
@@ -33137,10 +33143,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -33166,10 +33172,10 @@
         <v>499</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -33220,7 +33226,7 @@
         <v>83</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>84</v>
@@ -33256,7 +33262,7 @@
         <v>83</v>
       </c>
       <c r="AR226" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AS226" t="s" s="2">
         <v>83</v>
@@ -33267,13 +33273,13 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D227" t="s" s="2">
         <v>83</v>
@@ -33295,13 +33301,13 @@
         <v>83</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -33352,7 +33358,7 @@
         <v>83</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>84</v>
@@ -33376,7 +33382,7 @@
         <v>83</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AO227" t="s" s="2">
         <v>83</v>
@@ -33385,13 +33391,13 @@
         <v>83</v>
       </c>
       <c r="AQ227" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AR227" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AS227" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AT227" t="s" s="2">
         <v>83</v>
@@ -33399,10 +33405,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -33529,10 +33535,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -33657,13 +33663,13 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D230" t="s" s="2">
         <v>83</v>
@@ -33685,13 +33691,13 @@
         <v>83</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -33789,10 +33795,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -33919,10 +33925,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -34051,13 +34057,13 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="B233" t="s" s="2">
         <v>884</v>
       </c>
-      <c r="B233" t="s" s="2">
-        <v>883</v>
-      </c>
       <c r="C233" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D233" t="s" s="2">
         <v>83</v>
@@ -34160,7 +34166,7 @@
         <v>83</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AO233" t="s" s="2">
         <v>83</v>
@@ -34183,10 +34189,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -34313,10 +34319,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -34443,10 +34449,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -34486,7 +34492,7 @@
       </c>
       <c r="Q236" s="2"/>
       <c r="R236" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="S236" t="s" s="2">
         <v>83</v>
@@ -34575,10 +34581,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -34638,7 +34644,7 @@
       </c>
       <c r="Y237" s="2"/>
       <c r="Z237" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AA237" t="s" s="2">
         <v>83</v>
@@ -34703,13 +34709,13 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D238" t="s" s="2">
         <v>83</v>
@@ -34812,7 +34818,7 @@
         <v>83</v>
       </c>
       <c r="AN238" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AO238" t="s" s="2">
         <v>83</v>
@@ -34835,10 +34841,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -34965,10 +34971,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -35095,10 +35101,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -35138,7 +35144,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>83</v>
@@ -35227,10 +35233,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -35290,7 +35296,7 @@
       </c>
       <c r="Y242" s="2"/>
       <c r="Z242" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AA242" t="s" s="2">
         <v>83</v>
@@ -35355,13 +35361,13 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D243" t="s" s="2">
         <v>83</v>
@@ -35464,7 +35470,7 @@
         <v>83</v>
       </c>
       <c r="AN243" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AO243" t="s" s="2">
         <v>83</v>
@@ -35487,10 +35493,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -35617,10 +35623,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -35747,10 +35753,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -35790,7 +35796,7 @@
       </c>
       <c r="Q246" s="2"/>
       <c r="R246" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="S246" t="s" s="2">
         <v>83</v>
@@ -35879,10 +35885,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -35942,7 +35948,7 @@
       </c>
       <c r="Y247" s="2"/>
       <c r="Z247" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AA247" t="s" s="2">
         <v>83</v>
@@ -36007,10 +36013,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -36050,7 +36056,7 @@
       </c>
       <c r="Q248" s="2"/>
       <c r="R248" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="S248" t="s" s="2">
         <v>83</v>
@@ -36139,10 +36145,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -36269,14 +36275,14 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" t="s" s="2">
@@ -36298,10 +36304,10 @@
         <v>121</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N250" t="s" s="2">
         <v>124</v>
@@ -36356,7 +36362,7 @@
         <v>83</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>84</v>
@@ -36403,10 +36409,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -36432,14 +36438,14 @@
         <v>385</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="P251" t="s" s="2">
         <v>83</v>
@@ -36488,7 +36494,7 @@
         <v>83</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>84</v>
@@ -36524,7 +36530,7 @@
         <v>83</v>
       </c>
       <c r="AR251" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AS251" t="s" s="2">
         <v>83</v>
@@ -36535,10 +36541,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -36564,10 +36570,10 @@
         <v>247</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
@@ -36597,10 +36603,10 @@
         <v>179</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Z252" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AA252" t="s" s="2">
         <v>83</v>
@@ -36618,7 +36624,7 @@
         <v>83</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>100</v>
@@ -36654,10 +36660,10 @@
         <v>83</v>
       </c>
       <c r="AR252" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AS252" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AT252" t="s" s="2">
         <v>83</v>
@@ -36665,10 +36671,10 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -36795,10 +36801,10 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -36927,10 +36933,10 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -37059,13 +37065,13 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="B256" t="s" s="2">
         <v>926</v>
       </c>
-      <c r="B256" t="s" s="2">
-        <v>925</v>
-      </c>
       <c r="C256" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>83</v>
@@ -37128,7 +37134,7 @@
       </c>
       <c r="Y256" s="2"/>
       <c r="Z256" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AA256" t="s" s="2">
         <v>83</v>
@@ -37193,13 +37199,13 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D257" t="s" s="2">
         <v>83</v>
@@ -37262,7 +37268,7 @@
       </c>
       <c r="Y257" s="2"/>
       <c r="Z257" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AA257" t="s" s="2">
         <v>83</v>
@@ -37327,10 +37333,10 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -37461,10 +37467,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -37490,14 +37496,14 @@
         <v>267</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="P259" t="s" s="2">
         <v>83</v>
@@ -37546,7 +37552,7 @@
         <v>83</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>84</v>
@@ -37582,10 +37588,10 @@
         <v>83</v>
       </c>
       <c r="AR259" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AS259" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AT259" t="s" s="2">
         <v>83</v>
@@ -37593,10 +37599,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -37723,10 +37729,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -37855,10 +37861,10 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -37884,7 +37890,7 @@
         <v>274</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>276</v>
@@ -37964,7 +37970,7 @@
         <v>83</v>
       </c>
       <c r="AN262" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AO262" t="s" s="2">
         <v>83</v>
@@ -37987,10 +37993,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -38016,7 +38022,7 @@
         <v>274</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>286</v>
@@ -38098,7 +38104,7 @@
         <v>83</v>
       </c>
       <c r="AN263" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AO263" t="s" s="2">
         <v>83</v>
@@ -38121,10 +38127,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -38147,13 +38153,13 @@
         <v>83</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
@@ -38204,7 +38210,7 @@
         <v>83</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>84</v>
@@ -38228,7 +38234,7 @@
         <v>83</v>
       </c>
       <c r="AN264" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AO264" t="s" s="2">
         <v>83</v>
@@ -38240,7 +38246,7 @@
         <v>83</v>
       </c>
       <c r="AR264" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AS264" t="s" s="2">
         <v>83</v>
@@ -38251,13 +38257,13 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D265" t="s" s="2">
         <v>83</v>
@@ -38279,13 +38285,13 @@
         <v>83</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
@@ -38336,7 +38342,7 @@
         <v>83</v>
       </c>
       <c r="AF265" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG265" t="s" s="2">
         <v>84</v>
@@ -38369,13 +38375,13 @@
         <v>83</v>
       </c>
       <c r="AQ265" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AR265" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AS265" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AT265" t="s" s="2">
         <v>83</v>
@@ -38383,10 +38389,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -38513,10 +38519,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -38645,14 +38651,14 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" t="s" s="2">
@@ -38674,10 +38680,10 @@
         <v>121</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N268" t="s" s="2">
         <v>124</v>
@@ -38732,7 +38738,7 @@
         <v>83</v>
       </c>
       <c r="AF268" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AG268" t="s" s="2">
         <v>84</v>
@@ -38779,10 +38785,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -38808,14 +38814,14 @@
         <v>385</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N269" s="2"/>
       <c r="O269" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="P269" t="s" s="2">
         <v>83</v>
@@ -38864,7 +38870,7 @@
         <v>83</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AG269" t="s" s="2">
         <v>84</v>
@@ -38900,7 +38906,7 @@
         <v>83</v>
       </c>
       <c r="AR269" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AS269" t="s" s="2">
         <v>83</v>
@@ -38911,10 +38917,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -38940,10 +38946,10 @@
         <v>247</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -38973,10 +38979,10 @@
         <v>179</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Z270" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AA270" t="s" s="2">
         <v>83</v>
@@ -38994,7 +39000,7 @@
         <v>83</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AG270" t="s" s="2">
         <v>100</v>
@@ -39030,10 +39036,10 @@
         <v>83</v>
       </c>
       <c r="AR270" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AS270" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AT270" t="s" s="2">
         <v>83</v>
@@ -39041,10 +39047,10 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -39171,10 +39177,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -39303,10 +39309,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -39435,13 +39441,13 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D274" t="s" s="2">
         <v>83</v>
@@ -39466,7 +39472,7 @@
         <v>167</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="M274" t="s" s="2">
         <v>418</v>
@@ -39504,7 +39510,7 @@
       </c>
       <c r="Y274" s="2"/>
       <c r="Z274" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AA274" t="s" s="2">
         <v>83</v>
@@ -39540,7 +39546,7 @@
         <v>83</v>
       </c>
       <c r="AL274" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>83</v>
@@ -39569,10 +39575,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C275" t="s" s="2">
         <v>359</v>
@@ -39600,7 +39606,7 @@
         <v>167</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M275" t="s" s="2">
         <v>418</v>
@@ -39674,7 +39680,7 @@
         <v>83</v>
       </c>
       <c r="AL275" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AM275" t="s" s="2">
         <v>83</v>
@@ -39703,10 +39709,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -39837,10 +39843,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -39866,14 +39872,14 @@
         <v>267</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="P277" t="s" s="2">
         <v>83</v>
@@ -39922,7 +39928,7 @@
         <v>83</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AG277" t="s" s="2">
         <v>84</v>
@@ -39958,10 +39964,10 @@
         <v>83</v>
       </c>
       <c r="AR277" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AS277" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AT277" t="s" s="2">
         <v>83</v>
@@ -39969,10 +39975,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -40099,10 +40105,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -40231,10 +40237,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -40260,7 +40266,7 @@
         <v>274</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M280" t="s" s="2">
         <v>276</v>
@@ -40334,7 +40340,7 @@
         <v>83</v>
       </c>
       <c r="AL280" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AM280" t="s" s="2">
         <v>83</v>
@@ -40363,10 +40369,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -40392,7 +40398,7 @@
         <v>274</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="M281" t="s" s="2">
         <v>286</v>
@@ -40468,7 +40474,7 @@
         <v>83</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AM281" t="s" s="2">
         <v>83</v>
@@ -40497,10 +40503,10 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -40526,10 +40532,10 @@
         <v>499</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
@@ -40580,7 +40586,7 @@
         <v>83</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>84</v>
@@ -40616,7 +40622,7 @@
         <v>83</v>
       </c>
       <c r="AR282" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AS282" t="s" s="2">
         <v>83</v>
@@ -40627,13 +40633,13 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D283" t="s" s="2">
         <v>83</v>
@@ -40655,13 +40661,13 @@
         <v>83</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
@@ -40712,7 +40718,7 @@
         <v>83</v>
       </c>
       <c r="AF283" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG283" t="s" s="2">
         <v>84</v>
@@ -40745,13 +40751,13 @@
         <v>83</v>
       </c>
       <c r="AQ283" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AR283" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AS283" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AT283" t="s" s="2">
         <v>83</v>
@@ -40759,10 +40765,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -40889,10 +40895,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -41021,14 +41027,14 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
@@ -41050,10 +41056,10 @@
         <v>121</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N286" t="s" s="2">
         <v>124</v>
@@ -41108,7 +41114,7 @@
         <v>83</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>84</v>
@@ -41155,10 +41161,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -41184,14 +41190,14 @@
         <v>385</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="P287" t="s" s="2">
         <v>83</v>
@@ -41240,7 +41246,7 @@
         <v>83</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>84</v>
@@ -41276,7 +41282,7 @@
         <v>83</v>
       </c>
       <c r="AR287" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AS287" t="s" s="2">
         <v>83</v>
@@ -41287,10 +41293,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -41316,10 +41322,10 @@
         <v>247</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
@@ -41349,10 +41355,10 @@
         <v>179</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Z288" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AA288" t="s" s="2">
         <v>83</v>
@@ -41370,7 +41376,7 @@
         <v>83</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AG288" t="s" s="2">
         <v>100</v>
@@ -41385,7 +41391,7 @@
         <v>112</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AL288" t="s" s="2">
         <v>83</v>
@@ -41406,10 +41412,10 @@
         <v>83</v>
       </c>
       <c r="AR288" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AS288" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AT288" t="s" s="2">
         <v>83</v>
@@ -41417,10 +41423,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -41547,10 +41553,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -41679,10 +41685,10 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -41811,13 +41817,13 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D292" t="s" s="2">
         <v>83</v>
@@ -41842,7 +41848,7 @@
         <v>167</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M292" t="s" s="2">
         <v>418</v>
@@ -41880,7 +41886,7 @@
       </c>
       <c r="Y292" s="2"/>
       <c r="Z292" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AA292" t="s" s="2">
         <v>83</v>
@@ -41945,13 +41951,13 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D293" t="s" s="2">
         <v>83</v>
@@ -41976,7 +41982,7 @@
         <v>167</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="M293" t="s" s="2">
         <v>418</v>
@@ -42014,7 +42020,7 @@
       </c>
       <c r="Y293" s="2"/>
       <c r="Z293" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AA293" t="s" s="2">
         <v>83</v>
@@ -42079,10 +42085,10 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -42213,10 +42219,10 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -42242,14 +42248,14 @@
         <v>267</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N295" s="2"/>
       <c r="O295" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="P295" t="s" s="2">
         <v>83</v>
@@ -42298,7 +42304,7 @@
         <v>83</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AG295" t="s" s="2">
         <v>84</v>
@@ -42334,10 +42340,10 @@
         <v>83</v>
       </c>
       <c r="AR295" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AS295" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AT295" t="s" s="2">
         <v>83</v>
@@ -42345,10 +42351,10 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -42475,10 +42481,10 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -42607,10 +42613,10 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -42636,7 +42642,7 @@
         <v>274</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M298" t="s" s="2">
         <v>276</v>
@@ -42707,7 +42713,7 @@
         <v>112</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AL298" t="s" s="2">
         <v>83</v>
@@ -42739,10 +42745,10 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -42768,7 +42774,7 @@
         <v>274</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M299" t="s" s="2">
         <v>286</v>
@@ -42841,7 +42847,7 @@
         <v>112</v>
       </c>
       <c r="AK299" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AL299" t="s" s="2">
         <v>83</v>
@@ -42873,10 +42879,10 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -42902,10 +42908,10 @@
         <v>499</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N300" s="2"/>
       <c r="O300" s="2"/>
@@ -42956,7 +42962,7 @@
         <v>83</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AG300" t="s" s="2">
         <v>84</v>
@@ -42992,7 +42998,7 @@
         <v>83</v>
       </c>
       <c r="AR300" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AS300" t="s" s="2">
         <v>83</v>
@@ -43003,10 +43009,10 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s" s="2">
@@ -43029,19 +43035,19 @@
         <v>83</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O301" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="P301" t="s" s="2">
         <v>83</v>
@@ -43070,7 +43076,7 @@
       </c>
       <c r="Y301" s="2"/>
       <c r="Z301" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AA301" t="s" s="2">
         <v>83</v>
@@ -43088,7 +43094,7 @@
         <v>83</v>
       </c>
       <c r="AF301" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="AG301" t="s" s="2">
         <v>84</v>
@@ -43097,7 +43103,7 @@
         <v>85</v>
       </c>
       <c r="AI301" t="s" s="2">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="AJ301" t="s" s="2">
         <v>112</v>
@@ -43121,13 +43127,13 @@
         <v>83</v>
       </c>
       <c r="AQ301" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AR301" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AS301" t="s" s="2">
-        <v>83</v>
+        <v>1021</v>
       </c>
       <c r="AT301" t="s" s="2">
         <v>83</v>

--- a/nr-update/ig/StructureDefinition-as-dp-practitioner.xlsx
+++ b/nr-update/ig/StructureDefinition-as-dp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T08:42:48+00:00</t>
+    <t>2025-01-21T08:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -20671,10 +20671,10 @@
         <v>84</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>83</v>
@@ -21196,7 +21196,7 @@
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>100</v>
@@ -21599,7 +21599,7 @@
         <v>84</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>83</v>
@@ -21729,7 +21729,7 @@
         <v>84</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>83</v>
